--- a/src/test/resources/Book2.xlsx
+++ b/src/test/resources/Book2.xlsx
@@ -14,12 +14,264 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>User123</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="86">
+  <si>
+    <t>0284</t>
+  </si>
+  <si>
+    <t>Akim</t>
+  </si>
+  <si>
+    <t>Akimov</t>
+  </si>
+  <si>
+    <t>0186</t>
+  </si>
+  <si>
+    <t>Pamuk</t>
+  </si>
+  <si>
+    <t>Ayse</t>
+  </si>
+  <si>
+    <t>0199</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>0185</t>
+  </si>
+  <si>
+    <t>Den Mel</t>
+  </si>
+  <si>
+    <t>Baba</t>
+  </si>
+  <si>
+    <t>0189</t>
+  </si>
+  <si>
+    <t>Pasha</t>
+  </si>
+  <si>
+    <t>Beyza</t>
+  </si>
+  <si>
+    <t>0202</t>
+  </si>
+  <si>
+    <t>0196</t>
+  </si>
+  <si>
+    <t>Amanda</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>0197</t>
+  </si>
+  <si>
+    <t>Arthur</t>
+  </si>
+  <si>
+    <t>0198</t>
+  </si>
+  <si>
+    <t>Addison</t>
+  </si>
+  <si>
+    <t>0235</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>0269</t>
+  </si>
+  <si>
+    <t>Ann Maria</t>
+  </si>
+  <si>
+    <t>Espaniollo</t>
+  </si>
+  <si>
+    <t>Hana</t>
+  </si>
+  <si>
+    <t>Felix</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>Lara</t>
+  </si>
+  <si>
+    <t>Clara</t>
+  </si>
+  <si>
+    <t>Tara</t>
+  </si>
+  <si>
+    <t>Lana</t>
+  </si>
+  <si>
+    <t>Hana1</t>
+  </si>
+  <si>
+    <t>Sara1</t>
+  </si>
+  <si>
+    <t>Lara1</t>
+  </si>
+  <si>
+    <t>Clara1</t>
+  </si>
+  <si>
+    <t>Tara1</t>
+  </si>
+  <si>
+    <t>Lana1</t>
+  </si>
+  <si>
+    <t>Hana.</t>
+  </si>
+  <si>
+    <t>Sara.</t>
+  </si>
+  <si>
+    <t>Lara.</t>
+  </si>
+  <si>
+    <t>Clara.</t>
+  </si>
+  <si>
+    <t>Tara.</t>
+  </si>
+  <si>
+    <t>Lana.</t>
+  </si>
+  <si>
+    <t>0227</t>
+  </si>
+  <si>
+    <t>Ali O</t>
+  </si>
+  <si>
+    <t>Genc</t>
+  </si>
+  <si>
+    <t>0205</t>
+  </si>
+  <si>
+    <t>Ciguli Ajdar</t>
+  </si>
+  <si>
+    <t>Giller</t>
+  </si>
+  <si>
+    <t>0226</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>Abdul</t>
+  </si>
+  <si>
+    <t>Jabar</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>0245</t>
+  </si>
+  <si>
+    <t>firstName middleName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>0247</t>
+  </si>
+  <si>
+    <t>0254</t>
+  </si>
+  <si>
+    <t>0262</t>
+  </si>
+  <si>
+    <t>0270</t>
+  </si>
+  <si>
+    <t>0277</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>k l</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>0238</t>
+  </si>
+  <si>
+    <t>Raj</t>
+  </si>
+  <si>
+    <t>Maharjan</t>
+  </si>
+  <si>
+    <t>0187</t>
+  </si>
+  <si>
+    <t>Luna</t>
+  </si>
+  <si>
+    <t>Nur</t>
+  </si>
+  <si>
+    <t>0200</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>Abraham MoonDay</t>
+  </si>
+  <si>
+    <t>Sergeant</t>
+  </si>
+  <si>
+    <t>0237</t>
+  </si>
+  <si>
+    <t>Mukesh</t>
+  </si>
+  <si>
+    <t>Sharma</t>
+  </si>
+  <si>
+    <t>0148</t>
+  </si>
+  <si>
+    <t>Dave</t>
+  </si>
+  <si>
+    <t>Smith</t>
   </si>
 </sst>
 </file>
@@ -29,8 +281,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -41,6 +293,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,10 +323,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -63,16 +339,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -86,6 +399,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -94,94 +430,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -194,187 +446,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,26 +640,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -436,36 +688,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -485,150 +707,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -958,20 +1210,652 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A5:B5"/>
+  <dimension ref="B2:OF396"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="5">
-      <c r="A5" t="s">
+    <row r="2">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="3">
+      <c r="C3" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="J10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="K11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="L12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="R18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="S19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="T20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="AA27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="AB28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="AI35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="AJ36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="AQ43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="AR44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="AX50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="AY51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="AZ52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="BF58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="BG59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="BH60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="BN66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="BO67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="BP68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="BV74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="BW75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="BX76" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="CD82" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="CE83" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="CF84" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="CL90" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="CM91" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="CN92" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="CT98" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="CU99" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="CV100" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="DB106" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="DC107" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="DD108" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="DK115" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="DL116" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="DS123" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="DT124" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="EA131" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="EB132" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="EI139" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="EJ140" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="EQ147" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="ER148" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="EY155" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="EZ156" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="FG163" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="FH164" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="FO171" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="FP172" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="FW179" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="FX180" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="GE187" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="GF188" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="GM195" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="GN196" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="GU203" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="GV204" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="HC211" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="HD212" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="HK219" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="HL220" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="HS227" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="HT228" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="IA235" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="IB236" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="II243" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="IJ244" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="IQ251" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="IR252" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="IX258" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="IY259" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="IZ260" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="JF266" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="JG267" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="JH268" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="JN274" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="JO275" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="JP276" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="JV282" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="JW283" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="JX284" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="KE291" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="KF292" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="KL298" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="KM299" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="KN300" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="KT306" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="KU307" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="KV308" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="LB314" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="LC315" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="LD316" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="LJ322" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="LK323" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="LL324" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="LR330" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="LS331" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="LT332" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="LZ338" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="MA339" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="MB340" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="MH346" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="MI347" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="MJ348" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="MP354" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="MQ355" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="MR356" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="MX362" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="MY363" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="MZ364" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="NF370" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="NG371" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="NH372" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="NN378" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="NO379" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="NP380" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="NV386" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="NW387" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="NX388" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="OD394" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="OE395" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="OF396" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
